--- a/Followup_1_Codebook.xlsx
+++ b/Followup_1_Codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krielo\OneDrive - Folkhälsan\Desktop\Original_data_to_derive_variables\GitHub_versions_of_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485FDB4A-04D3-4FDE-94AB-1545331E17F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBA1E27-11FB-404D-8161-9B269F9787E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="720" windowWidth="13356" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="0" windowWidth="15828" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guardian" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="251">
   <si>
     <t>Variables in the guardian's follow-up questionnaire</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t xml:space="preserve">This is our own question and also used at baseline. </t>
-  </si>
-  <si>
-    <t>CONDITION in p_f1_fu: if answered 1 or p_f1_other_fu, then p_f6_fu, p_f7_fu</t>
   </si>
   <si>
     <t>Other, who? (open text)</t>
@@ -393,9 +390,6 @@
     <t>WHO HBSC (Health Behaviour in School-aged Children); adapted to the parent questionnaire.</t>
   </si>
   <si>
-    <t>CONDITION in p_f9_fu: if answered 2, then p_f10_fu</t>
-  </si>
-  <si>
     <t xml:space="preserve">How much time does your child spend in the other home or with his/her other family? </t>
   </si>
   <si>
@@ -421,9 +415,6 @@
   </si>
   <si>
     <t>Adapted from “Koulut liikkeelle”, a Finnish school study.</t>
-  </si>
-  <si>
-    <t>CONDITION in pf12_fu: if answered 3-10, then p_f13_fu, p_f14_fu, p_f15_fu</t>
   </si>
   <si>
     <t xml:space="preserve">How many hours a week do you normally exercise or do sports during your free time? </t>
@@ -733,9 +724,6 @@
     </r>
   </si>
   <si>
-    <t>CONDITION in c_F8_fu: if answered 3-10, then  c_f9_fu,  c_f10_fu,  c_f11_fu</t>
-  </si>
-  <si>
     <t>Include all the exercise you do in a club or team and any exercise by yourself, with family or friends.</t>
   </si>
   <si>
@@ -1200,6 +1188,15 @@
   </si>
   <si>
     <t>School days</t>
+  </si>
+  <si>
+    <t>CONDITION: if answered "1-3 times a month" or more, then continue to the following three Physical Activity questions.</t>
+  </si>
+  <si>
+    <t>CONDITION: if answered "Mother" or "Other, who?", then "Are you pregnant at present? ", "Have you given birth during the last 12 months? "</t>
+  </si>
+  <si>
+    <t>CONDITION: if answered "Yes", then "How much time does your child spend in the other home or with his/her other family?"</t>
   </si>
 </sst>
 </file>
@@ -2316,8 +2313,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2383,7 +2380,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>10</v>
@@ -2392,7 +2389,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>11</v>
@@ -2401,57 +2398,57 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="D13" s="26" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="26"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="32" t="s">
         <v>16</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="41"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2460,147 +2457,147 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="32" t="s">
         <v>24</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C38" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D40"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C41" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="C43" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="31" t="s">
         <v>41</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="10"/>
       <c r="C44" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C45" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C46" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C47" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2610,23 +2607,23 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="31" t="s">
         <v>44</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>45</v>
       </c>
       <c r="E51"/>
       <c r="F51"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
@@ -2638,10 +2635,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
@@ -2649,234 +2646,234 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B62" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B63" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B64" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="32" t="s">
         <v>52</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" s="32" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C79" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C80" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C81" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>56</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C82" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C83" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C84" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C85" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C86" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C87" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C90" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C91" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C92" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C93" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D93" s="39"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C94" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D94" s="36"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C95" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C96" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C97" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C98" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2884,61 +2881,61 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B100" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D100" s="34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C101" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C102" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D102" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C103" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B105" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C106" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C107" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2946,72 +2943,72 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="C110" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="C111" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="C112" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C113" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C114" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C115" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C116" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C117" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C118" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C119" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
@@ -3019,160 +3016,160 @@
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C122" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C123" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C124" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C125" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C126" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C127" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C128" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C129" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C130" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C131" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C132" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C133" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C134" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C135" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C136" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B138" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B139" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H139" s="10"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F140" s="10"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C141" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G141" s="11"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C142" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F142" s="11"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C143" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F143" s="11"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C144" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F144" s="11"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C145" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F145" s="11"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="12"/>
       <c r="C146" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F146" s="11"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="12"/>
       <c r="C147" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
@@ -3180,71 +3177,71 @@
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D151" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="12"/>
       <c r="C152" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="12"/>
       <c r="C153" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="12"/>
       <c r="C154" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="12"/>
       <c r="C155" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="12"/>
       <c r="C156" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="12"/>
       <c r="C157" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="12"/>
       <c r="C158" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.3">
@@ -3254,39 +3251,39 @@
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B161" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E161" s="7"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B162" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D162" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E162" s="7"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" s="12"/>
       <c r="C163" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -3294,17 +3291,17 @@
     <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164" s="12"/>
       <c r="C164" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E164" s="7"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B165" s="12"/>
       <c r="C165" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -3312,7 +3309,7 @@
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="12"/>
       <c r="C166" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -3320,7 +3317,7 @@
     <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B167" s="12"/>
       <c r="C167" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -3328,7 +3325,7 @@
     <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B168" s="12"/>
       <c r="C168" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -3336,7 +3333,7 @@
     <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B169" s="12"/>
       <c r="C169" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -3348,70 +3345,70 @@
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E171" s="7"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B172" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B173" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C174" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C175" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C176" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C177" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C178" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C179" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3429,8 +3426,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3444,7 +3441,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="9"/>
     </row>
@@ -3459,7 +3456,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4"/>
     </row>
@@ -3488,7 +3485,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -3502,22 +3499,22 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="32" t="s">
         <v>16</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="32"/>
@@ -3525,7 +3522,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="32"/>
@@ -3533,7 +3530,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="32"/>
@@ -3541,7 +3538,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="32"/>
@@ -3549,7 +3546,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="32"/>
@@ -3561,32 +3558,32 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
@@ -3594,7 +3591,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
@@ -3602,7 +3599,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
@@ -3610,7 +3607,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
@@ -3618,7 +3615,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
@@ -3626,14 +3623,14 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="42"/>
@@ -3646,20 +3643,20 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="C28" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="9"/>
@@ -3667,7 +3664,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="9"/>
@@ -3680,25 +3677,25 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="32" t="s">
         <v>24</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3706,37 +3703,37 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
       <c r="C38" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -3745,137 +3742,137 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="38" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="38" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="38" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="38" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="38" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="38" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="38" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" s="38" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" s="38" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" s="38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" s="38" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" s="38" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" s="38" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" s="38" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="38" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3884,89 +3881,89 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D63"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3974,86 +3971,86 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>111</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D73" s="39" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D76" s="9"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D77" s="9"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D80" s="9"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D81" s="9"/>
     </row>
@@ -4063,79 +4060,79 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D83" s="36" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D85" s="9"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D86" s="9"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D87" s="9"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D88" s="9"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D89" s="9"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D90" s="9"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D91" s="9"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D92" s="9"/>
     </row>
@@ -4145,37 +4142,37 @@
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D94" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="9"/>
       <c r="C95" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="9"/>
       <c r="C96" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D96" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -4184,28 +4181,28 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B99" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -4213,79 +4210,79 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" s="32" t="s">
         <v>66</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
@@ -4294,101 +4291,101 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.3">
@@ -4397,76 +4394,76 @@
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B133" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B134" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H134" s="4"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B135" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F135" s="4"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G136" s="5"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F137" s="5"/>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F138" s="5"/>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F139" s="5"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F140" s="5"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F141" s="5"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F142" s="5"/>
     </row>
@@ -4476,76 +4473,76 @@
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B144" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B145" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H145" s="4"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B146" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F146" s="4"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G147" s="5"/>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G148" s="5"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G149" s="5"/>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
       <c r="C150" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G150" s="5"/>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
       <c r="C151" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G151" s="5"/>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
       <c r="C152" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G152" s="5"/>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
       <c r="C153" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.3">
@@ -4554,44 +4551,44 @@
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B156" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D156" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E156" s="13"/>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B157" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E157" s="13"/>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E158" s="13"/>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D159" s="13"/>
       <c r="E159" s="13"/>
@@ -4599,7 +4596,7 @@
     <row r="160" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
       <c r="C160" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
@@ -4607,7 +4604,7 @@
     <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D161" s="13"/>
       <c r="E161" s="13"/>
@@ -4615,7 +4612,7 @@
     <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D162" s="13"/>
       <c r="E162" s="13"/>
@@ -4623,7 +4620,7 @@
     <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D163" s="13"/>
       <c r="E163" s="13"/>
@@ -4631,7 +4628,7 @@
     <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
       <c r="C164" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
@@ -4644,71 +4641,71 @@
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E166" s="13"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E167" s="13"/>
       <c r="F167" s="13"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F168" s="13"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C169" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C170" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C171" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C172" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C173" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C174" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C175" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4722,26 +4719,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d882b9d3-d583-427f-8550-530e1343d4ee" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0cdfeafd-809f-4fee-9203-d6c41a09d90a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085E0E6DCB12E40438047715E8C185912" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="08edf8e6cdf2e24fb6edeb2ca58b9ae3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0cdfeafd-809f-4fee-9203-d6c41a09d90a" xmlns:ns3="d882b9d3-d583-427f-8550-530e1343d4ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1099e8740b6d5ec1041ce28a663fca98" ns2:_="" ns3:_="">
     <xsd:import namespace="0cdfeafd-809f-4fee-9203-d6c41a09d90a"/>
@@ -4972,10 +4949,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d882b9d3-d583-427f-8550-530e1343d4ee" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0cdfeafd-809f-4fee-9203-d6c41a09d90a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455E5F34-C387-4843-B35B-4F63DE23246F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC67D8E6-58B2-4220-BFEF-1C8F3988CC17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0cdfeafd-809f-4fee-9203-d6c41a09d90a"/>
+    <ds:schemaRef ds:uri="d882b9d3-d583-427f-8550-530e1343d4ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4992,20 +5000,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC67D8E6-58B2-4220-BFEF-1C8F3988CC17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455E5F34-C387-4843-B35B-4F63DE23246F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0cdfeafd-809f-4fee-9203-d6c41a09d90a"/>
-    <ds:schemaRef ds:uri="d882b9d3-d583-427f-8550-530e1343d4ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>